--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -345,6 +360,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -433,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,6 +463,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,285 +485,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -766,2305 +830,2653 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -831,2652 +834,2652 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -365,7 +368,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,7 +469,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -586,13 +589,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -609,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -655,7 +658,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -678,13 +681,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -701,7 +704,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -770,7 +773,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -815,2671 +818,2694 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>34</v>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1509,22 +1515,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>35</v>
@@ -1532,22 +1538,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -1555,19 +1561,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1607,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1630,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1653,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1722,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
         <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2041,7 +2047,7 @@
         <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
@@ -2050,7 +2056,7 @@
         <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2061,22 +2067,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2176,22 +2182,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2268,22 +2274,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2291,22 +2297,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2360,22 +2366,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>35</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2406,22 +2412,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,22 +2481,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2498,22 +2504,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2524,16 +2530,16 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2547,7 +2553,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2556,7 +2562,7 @@
         <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2570,16 +2576,16 @@
         <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2590,10 +2596,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2602,7 +2608,7 @@
         <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2659,16 +2665,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>104</v>
@@ -2682,10 +2688,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
@@ -2694,7 +2700,7 @@
         <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2843,10 +2849,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2855,7 +2861,7 @@
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2866,10 +2872,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2878,7 +2884,7 @@
         <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2889,10 +2895,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2907,7 @@
         <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2912,599 +2918,691 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -374,7 +374,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -475,7 +478,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3496,7 +3499,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3516,19 +3519,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3542,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>25</v>
@@ -3562,10 +3565,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3574,7 +3577,7 @@
         <v>33</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3585,10 +3588,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -3597,7 +3600,7 @@
         <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3499,7 +3496,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3519,19 +3516,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3539,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>25</v>
@@ -3565,10 +3562,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3577,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3588,10 +3585,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -3600,7 +3597,7 @@
         <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3496,7 +3499,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3516,19 +3519,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3542,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>25</v>
@@ -3562,10 +3565,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3574,7 +3577,7 @@
         <v>33</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3585,10 +3588,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -3597,7 +3600,7 @@
         <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -466,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -476,7 +506,7 @@
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2070,22 +2100,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2093,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2169,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,22 +2215,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2208,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,22 +2261,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2254,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,22 +2307,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2300,22 +2330,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2323,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,22 +2376,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>35</v>
@@ -2369,19 +2399,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,22 +2422,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>35</v>
@@ -2415,22 +2445,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2438,22 +2468,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>35</v>
@@ -2461,19 +2491,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,22 +2514,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2507,22 +2537,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2530,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2553,22 +2583,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2576,19 +2606,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,22 +2629,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2622,22 +2652,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2645,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2721,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2744,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,22 +2767,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2760,19 +2790,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,22 +2813,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -2806,22 +2836,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2829,19 +2859,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2882,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2905,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2928,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2951,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2974,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,16 +2997,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>116</v>
@@ -2990,622 +3020,944 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="2" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,6 +170,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -224,13 +230,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,22 +1577,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -1594,22 +1600,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2215,22 +2221,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2261,22 +2267,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2376,22 +2382,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>35</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2422,22 +2428,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>35</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,22 +2497,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>35</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2698,22 +2704,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2767,22 +2773,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2790,19 +2796,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2813,22 +2819,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -2862,7 +2868,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2871,7 +2877,7 @@
         <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2891,19 @@
         <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -2908,19 +2914,19 @@
         <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -2928,10 +2934,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2940,7 +2946,7 @@
         <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2997,16 +3003,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>116</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3118,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3141,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3181,10 +3187,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3193,7 +3199,7 @@
         <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3296,10 +3302,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3308,7 +3314,7 @@
         <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3319,10 +3325,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3331,7 +3337,7 @@
         <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3342,622 +3348,737 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="2" t="s">
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1600,22 +1606,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1623,22 +1629,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,22 +2273,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,22 +2319,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,22 +2457,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
@@ -2520,22 +2526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2543,22 +2549,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2566,22 +2572,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,22 +2641,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2658,22 +2664,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2681,22 +2687,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2704,22 +2710,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2727,19 +2733,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,22 +2779,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2796,22 +2802,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,22 +2848,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2865,19 +2871,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,22 +2894,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -2937,7 +2943,7 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2946,7 +2952,7 @@
         <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -2983,19 +2989,19 @@
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3003,10 +3009,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3015,7 +3021,7 @@
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,10 +3124,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3130,7 +3136,7 @@
         <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3193,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,19 +3216,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3256,19 +3262,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3279,10 +3285,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3291,7 +3297,7 @@
         <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3302,19 +3308,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3331,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3354,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3394,10 +3400,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3406,7 +3412,7 @@
         <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3417,10 +3423,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3429,7 +3435,7 @@
         <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3440,645 +3446,737 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1629,22 +1635,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,22 +2325,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,22 +2371,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,22 +2509,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>35</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>21</v>
@@ -2572,22 +2578,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2595,22 +2601,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2618,22 +2624,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2641,22 +2647,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2710,22 +2716,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2733,22 +2739,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2756,22 +2762,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2779,22 +2785,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2848,22 +2854,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2871,22 +2877,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,22 +2923,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,22 +2969,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3012,7 +3018,7 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3021,7 +3027,7 @@
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3058,19 +3064,19 @@
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3078,10 +3084,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3090,7 +3096,7 @@
         <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3193,10 +3199,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -3205,7 +3211,7 @@
         <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3285,19 +3291,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3308,19 +3314,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3354,10 +3360,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3366,7 +3372,7 @@
         <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3377,19 +3383,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3400,19 +3406,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3423,19 +3429,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3446,19 +3452,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3469,10 +3475,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3481,7 +3487,7 @@
         <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3492,10 +3498,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3504,7 +3510,7 @@
         <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3515,668 +3521,760 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="2" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -3872,7 +3872,7 @@
         <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>134</v>
@@ -3895,7 +3895,7 @@
         <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>134</v>
@@ -3904,7 +3904,7 @@
         <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>136</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -514,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1658,22 +1670,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1681,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,22 +1716,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>35</v>
@@ -1727,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,22 +2383,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2394,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,22 +2475,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2486,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,22 +2567,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2578,22 +2590,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2601,22 +2613,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2624,22 +2636,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2647,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2716,22 +2728,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2739,22 +2751,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2762,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
@@ -2785,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,22 +2820,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2831,22 +2843,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -2854,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -2877,22 +2889,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2900,22 +2912,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -2923,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,22 +2958,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -2969,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3015,22 +3027,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3038,22 +3050,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3061,22 +3073,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3084,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,10 +3142,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3142,10 +3154,10 @@
         <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3153,10 +3165,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3165,7 +3177,7 @@
         <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,22 +3188,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3199,22 +3211,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3222,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3326,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3349,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3372,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3395,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3418,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3441,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3464,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3487,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3510,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3533,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3556,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3567,7 +3579,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>131</v>
@@ -3576,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>132</v>
@@ -3590,691 +3602,875 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>35</v>
       </c>
     </row>
